--- a/SelfCheckCase3/UseCase, System Test, Test Matrices.xlsx
+++ b/SelfCheckCase3/UseCase, System Test, Test Matrices.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="7260" yWindow="0" windowWidth="16980" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="System Test" sheetId="2" r:id="rId2"/>
     <sheet name="Test Matrix" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +62,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Donut Organizer</t>
-  </si>
-  <si>
     <t>Start donut organizer on an android device</t>
   </si>
   <si>
@@ -75,18 +77,12 @@
     <t>Tester: aTester</t>
   </si>
   <si>
-    <t>Steps to execute</t>
-  </si>
-  <si>
     <t>results</t>
   </si>
   <si>
     <t>Passed?</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Donut Organizer test matrix</t>
   </si>
   <si>
@@ -156,24 +152,9 @@
     <t>View Donut of the Day</t>
   </si>
   <si>
-    <t>close donut organizer</t>
-  </si>
-  <si>
-    <t>reopen donut organizer</t>
-  </si>
-  <si>
     <t>application killed</t>
   </si>
   <si>
-    <t>kill donut organizer</t>
-  </si>
-  <si>
-    <t>open donut organizer</t>
-  </si>
-  <si>
-    <t>hide donut organizer</t>
-  </si>
-  <si>
     <t>donut of the day displayed</t>
   </si>
   <si>
@@ -193,6 +174,33 @@
   </si>
   <si>
     <t>Administrator starts the server</t>
+  </si>
+  <si>
+    <t>Donut Organizer System Test</t>
+  </si>
+  <si>
+    <t>Open donut organizer</t>
+  </si>
+  <si>
+    <t>Hide donut organizer</t>
+  </si>
+  <si>
+    <t>Reopen donut organizer</t>
+  </si>
+  <si>
+    <t>Close donut organizer</t>
+  </si>
+  <si>
+    <t>Kill donut organizer</t>
+  </si>
+  <si>
+    <t>Change System Date</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Steps to Execute</t>
   </si>
 </sst>
 </file>
@@ -202,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +226,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +269,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -325,11 +368,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,6 +426,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,7 +445,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,368 +751,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1"/>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" ht="63" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="8">
         <v>41058</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1">
+      <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8">
+      <c r="B26" s="8">
         <v>41058</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="27" spans="1:2" ht="15" thickBot="1"/>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="B30" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
+      <c r="B31" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+      <c r="B33" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="3" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="7" t="s">
+    <row r="39" spans="1:2" ht="15" thickBot="1">
+      <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="8">
+      <c r="B39" s="8">
         <v>41058</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="59.25" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="28">
+      <c r="A6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" ht="28">
+      <c r="A10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" s="12" customFormat="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" s="12" customFormat="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1042,140 +1165,140 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:10">
+      <c r="C1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="3:10">
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="12"/>
+    <row r="3" spans="3:10">
+      <c r="C3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
       <c r="C4" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10">
       <c r="D6" s="9"/>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="84">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="D8" s="9"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10">
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
       <c r="H16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
       <c r="H18">
         <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1184,5 +1307,10 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>